--- a/Informes/Informe_Transacciones_2025-07-19.xlsx
+++ b/Informes/Informe_Transacciones_2025-07-19.xlsx
@@ -411,7 +411,7 @@
     <col min="12" max="12" width="32.67124938964844" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
-    <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
   </cols>
   <sheetData>
